--- a/student_timetables/Sonia SUNG_CampA_timetable.xlsx
+++ b/student_timetables/Sonia SUNG_CampA_timetable.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Full Timetable" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Full Timetable" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -712,11 +712,7 @@
       <c r="C13" s="1" t="n"/>
       <c r="D13" s="1" t="n"/>
       <c r="E13" s="1" t="n"/>
-      <c r="F13" s="1" t="inlineStr">
-        <is>
-          <t>Free Time</t>
-        </is>
-      </c>
+      <c r="F13" s="1" t="n"/>
       <c r="G13" s="1" t="n"/>
     </row>
     <row r="14">
@@ -1053,7 +1049,7 @@
       <c r="G30" s="1" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="41">
+  <mergeCells count="40">
     <mergeCell ref="E15:E19"/>
     <mergeCell ref="F7:F10"/>
     <mergeCell ref="G21:G26"/>
@@ -1074,13 +1070,11 @@
     <mergeCell ref="D7:D10"/>
     <mergeCell ref="C15:C19"/>
     <mergeCell ref="G29:G30"/>
-    <mergeCell ref="F13:F14"/>
     <mergeCell ref="D3:D6"/>
     <mergeCell ref="E11:E14"/>
     <mergeCell ref="E7:E10"/>
     <mergeCell ref="B24:B27"/>
     <mergeCell ref="F15:F19"/>
-    <mergeCell ref="F11:F12"/>
     <mergeCell ref="D24:D27"/>
     <mergeCell ref="E28:E30"/>
     <mergeCell ref="G27:G28"/>
@@ -1090,6 +1084,7 @@
     <mergeCell ref="C7:C14"/>
     <mergeCell ref="E3:E6"/>
     <mergeCell ref="B7:B10"/>
+    <mergeCell ref="F11:F14"/>
     <mergeCell ref="B28:B30"/>
     <mergeCell ref="C24:C27"/>
     <mergeCell ref="G15:G19"/>
